--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EFAE06-92A3-4CBE-83E8-A1C4A437BE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ABA1F8-20B5-4AC8-8833-69CFD9C11E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="223">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -682,7 +682,31 @@
     <t>electricity used in road transport</t>
   </si>
   <si>
+    <t>NCAP_AF</t>
+  </si>
+  <si>
     <t>CHE</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>ELC_Sol-CHE</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>Solar electricity produced in - Switzerland</t>
+  </si>
+  <si>
+    <t>ELC_Win-CHE</t>
+  </si>
+  <si>
+    <t>Wind electricity produced in - Switzerland</t>
   </si>
 </sst>
 </file>
@@ -3058,7 +3082,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -3083,10 +3107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:I20"/>
+  <dimension ref="B3:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3101,7 +3125,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:17" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3112,8 +3136,15 @@
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" ht="15" thickTop="1" thickBot="1">
+      <c r="M3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="2:17" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -3138,8 +3169,23 @@
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="M4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -3149,16 +3195,46 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O5" t="s">
+        <v>218</v>
+      </c>
+      <c r="P5" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>221</v>
+      </c>
+      <c r="O6" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -3166,7 +3242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:17">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -3174,7 +3250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:17">
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -3182,7 +3258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:17">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -3190,7 +3266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:17">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -3198,7 +3274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:17">
       <c r="C12" t="s">
         <v>28</v>
       </c>
@@ -3206,7 +3282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:17">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -3214,7 +3290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:17">
       <c r="C14" t="s">
         <v>27</v>
       </c>
@@ -3222,7 +3298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:17">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -3242,7 +3318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:17">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -3609,10 +3685,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
@@ -3729,49 +3805,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="14" t="s">
+    <row r="9" spans="1:11">
+      <c r="C9" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="15" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H13" s="15" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="C13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2222</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3779,22 +3855,22 @@
         <v>70</v>
       </c>
       <c r="E14" s="11">
+        <v>2222</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="C15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="11">
         <v>8888</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
       <c r="A16" s="13"/>
@@ -3819,9 +3895,7 @@
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:13" ht="12.75">
-      <c r="A18" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -3833,62 +3907,64 @@
     </row>
     <row r="19" spans="1:13" ht="12.75">
       <c r="A19" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:13" ht="14.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:13" ht="12.75">
+      <c r="A20" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25">
+      <c r="A21" t="s">
         <v>208</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>211</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>209</v>
       </c>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20" t="s">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" t="s">
         <v>210</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
     </row>
     <row r="22" spans="1:13" ht="12.75">
       <c r="A22" s="13"/>
@@ -3912,20 +3988,16 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:13" ht="14.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
+    <row r="24" spans="1:13" ht="12.75">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:13" ht="14.25">
       <c r="A25"/>
@@ -4151,6 +4223,21 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
+    </row>
+    <row r="40" spans="1:13" ht="14.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ABA1F8-20B5-4AC8-8833-69CFD9C11E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC912B1A-CA58-4010-8E47-6CBA5539A362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC912B1A-CA58-4010-8E47-6CBA5539A362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6CD1CE-2A99-46FE-A386-71B0C984D4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6CD1CE-2A99-46FE-A386-71B0C984D4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A06C4D8-2BB7-4969-B476-782C62D18FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A06C4D8-2BB7-4969-B476-782C62D18FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34B39C5-AFB1-4DEE-90BC-2E1F6B79DED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34B39C5-AFB1-4DEE-90BC-2E1F6B79DED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD522600-C80C-42AF-8311-634DD088D2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD522600-C80C-42AF-8311-634DD088D2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB679B41-C614-4226-AF27-8E78A703179C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1E979D-7CB9-48FC-BCCC-20CCEBBFB7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F84D52-D921-43AE-92AB-49DE1E51BAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="207">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -659,27 +659,6 @@
   </si>
   <si>
     <t>CHE</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>ELC_Sol-CHE</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
-  </si>
-  <si>
-    <t>TWh</t>
-  </si>
-  <si>
-    <t>Solar electricity produced in - Switzerland</t>
-  </si>
-  <si>
-    <t>ELC_Win-CHE</t>
-  </si>
-  <si>
-    <t>Wind electricity produced in - Switzerland</t>
   </si>
 </sst>
 </file>
@@ -3140,21 +3119,11 @@
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" t="s">
@@ -3166,21 +3135,6 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>208</v>
-      </c>
-      <c r="O5" t="s">
-        <v>209</v>
-      </c>
-      <c r="P5" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="6" spans="2:17">
       <c r="C6" t="s">
@@ -3188,21 +3142,6 @@
       </c>
       <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" t="s">
-        <v>212</v>
-      </c>
-      <c r="O6" t="s">
-        <v>209</v>
-      </c>
-      <c r="P6" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:17">

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F84D52-D921-43AE-92AB-49DE1E51BAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934BCF05-A23E-4928-9F2D-AE3F807C6164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="213">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -659,6 +659,24 @@
   </si>
   <si>
     <t>CHE</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>elc_spv-CHE</t>
+  </si>
+  <si>
+    <t>solar generation</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>elc_won-CHE</t>
+  </si>
+  <si>
+    <t>wind generation</t>
   </si>
 </sst>
 </file>
@@ -3059,7 +3077,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:Q22"/>
+  <dimension ref="B3:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3075,7 +3093,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:18" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3094,7 +3112,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:17" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="2:18" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -3119,13 +3137,26 @@
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="2:17">
+      <c r="M4" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -3135,16 +3166,52 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:17">
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
+        <v>208</v>
+      </c>
+      <c r="O5" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:17">
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>211</v>
+      </c>
+      <c r="O6" t="s">
+        <v>212</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -3152,7 +3219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:18">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -3160,7 +3227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:18">
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -3168,7 +3235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:18">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -3176,7 +3243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:18">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -3184,7 +3251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:18">
       <c r="C12" t="s">
         <v>28</v>
       </c>
@@ -3192,7 +3259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:18">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -3200,7 +3267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:18">
       <c r="C14" t="s">
         <v>27</v>
       </c>
@@ -3208,7 +3275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:18">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -3228,7 +3295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:18">
       <c r="B16" t="s">
         <v>38</v>
       </c>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934BCF05-A23E-4928-9F2D-AE3F807C6164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A33E5-B8F6-4FB8-ACA3-9D8370007192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A33E5-B8F6-4FB8-ACA3-9D8370007192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9348A2-C26D-4576-A051-F3D6547227A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9348A2-C26D-4576-A051-F3D6547227A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFD584F-EF7F-4925-8BC2-62CDD69B9DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="213">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -3007,7 +3007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4236,9 +4236,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
-  <dimension ref="A2:P93"/>
+  <dimension ref="A2:P95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
@@ -5301,14 +5303,20 @@
       <c r="B51" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>196</v>
+      <c r="G51" s="11" t="str">
+        <f>G46</f>
+        <v>G_CUREX</v>
+      </c>
+      <c r="I51" s="11" t="str">
+        <f t="shared" ref="I51:K51" si="0">I46</f>
+        <v>USD20</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="K51" s="11">
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.98960000000000004</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="13.15">
@@ -5319,7 +5327,7 @@
         <v>196</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K52" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5333,7 +5341,7 @@
         <v>196</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K53" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5347,7 +5355,7 @@
         <v>196</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K54" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5358,7 +5366,7 @@
         <v>196</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K55" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5369,7 +5377,7 @@
         <v>196</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K56" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5380,7 +5388,7 @@
         <v>196</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K57" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5391,7 +5399,7 @@
         <v>196</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K58" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5402,7 +5410,7 @@
         <v>196</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K59" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5413,7 +5421,7 @@
         <v>196</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K60" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5424,7 +5432,7 @@
         <v>196</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K61" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5435,7 +5443,7 @@
         <v>196</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K62" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5446,7 +5454,7 @@
         <v>196</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K63" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5457,7 +5465,7 @@
         <v>196</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K64" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5468,7 +5476,7 @@
         <v>196</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K65" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5479,7 +5487,7 @@
         <v>196</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K66" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5490,7 +5498,7 @@
         <v>196</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K67" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5501,7 +5509,7 @@
         <v>196</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="K68" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5512,7 +5520,7 @@
         <v>196</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K69" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5523,7 +5531,7 @@
         <v>196</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K70" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5534,7 +5542,7 @@
         <v>196</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K71" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5545,7 +5553,7 @@
         <v>196</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K72" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5556,7 +5564,7 @@
         <v>196</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K73" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5567,7 +5575,7 @@
         <v>196</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K74" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5578,7 +5586,7 @@
         <v>196</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K75" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5589,7 +5597,7 @@
         <v>196</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K76" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5600,7 +5608,7 @@
         <v>196</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K77" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5611,7 +5619,7 @@
         <v>196</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K78" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5622,7 +5630,7 @@
         <v>196</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K79" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5633,7 +5641,7 @@
         <v>196</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K80" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5644,7 +5652,7 @@
         <v>196</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5655,7 +5663,7 @@
         <v>196</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5666,7 +5674,7 @@
         <v>196</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5677,7 +5685,7 @@
         <v>196</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K84" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5688,7 +5696,7 @@
         <v>196</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K85" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5699,7 +5707,7 @@
         <v>196</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K86" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5710,7 +5718,7 @@
         <v>196</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K87" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5721,7 +5729,7 @@
         <v>196</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K88" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5732,7 +5740,7 @@
         <v>196</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K89" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5743,7 +5751,7 @@
         <v>196</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K90" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5754,7 +5762,7 @@
         <v>196</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K91" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5765,7 +5773,7 @@
         <v>196</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K92" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5776,9 +5784,32 @@
         <v>196</v>
       </c>
       <c r="J93" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K93" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="7:11">
+      <c r="G94" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="K93" s="11">
+      <c r="K94" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="7:11">
+      <c r="G95" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J95" s="11" t="str">
+        <f>J51</f>
+        <v>USD21_alt</v>
+      </c>
+      <c r="K95" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFD584F-EF7F-4925-8BC2-62CDD69B9DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188C2F75-6A0C-4AA8-929B-7B0F6C164247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188C2F75-6A0C-4AA8-929B-7B0F6C164247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DD4DB-CD7D-4C80-9F8B-4819A37A6A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DD4DB-CD7D-4C80-9F8B-4819A37A6A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6ADD43-480C-41FF-8ED4-55897F10DAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="214">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>co2net</t>
+  </si>
+  <si>
+    <t>flo_mark</t>
   </si>
   <si>
     <t>CHE</t>
@@ -3007,9 +3010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -3052,7 +3053,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -3138,7 +3139,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -3170,10 +3171,10 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P5" t="s">
         <v>29</v>
@@ -3182,7 +3183,7 @@
         <v>39</v>
       </c>
       <c r="R5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -3196,10 +3197,10 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P6" t="s">
         <v>29</v>
@@ -3208,7 +3209,7 @@
         <v>39</v>
       </c>
       <c r="R6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -3678,21 +3679,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
-  <dimension ref="B1:N40"/>
+  <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
     <col min="1" max="1" width="11.3984375" style="11"/>
-    <col min="2" max="2" width="9.1328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.3984375" style="11"/>
+    <col min="2" max="2" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.3984375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="12.75">
@@ -3808,49 +3815,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="14" t="s">
+    <row r="10" spans="2:12">
+      <c r="D10" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="15" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="D14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="11">
-        <v>2222</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -3858,22 +3865,22 @@
         <v>70</v>
       </c>
       <c r="F15" s="11">
+        <v>2222</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="D16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="11">
         <v>8888</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="12.75">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:14" ht="12.75">
       <c r="B17" s="13"/>
@@ -3897,20 +3904,16 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="2:14" ht="14.25">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+    <row r="19" spans="2:14" ht="12.75">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:14" ht="14.25">
       <c r="B20"/>
@@ -4227,6 +4230,21 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
+    <row r="41" spans="2:14" ht="14.25">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4238,9 +4256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
   <dimension ref="A2:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J95" sqref="J95"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
@@ -5823,9 +5839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
   <cols>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6ADD43-480C-41FF-8ED4-55897F10DAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E1A7E-05F0-4546-A9F2-FA1D3EC285C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E1A7E-05F0-4546-A9F2-FA1D3EC285C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F2B22-8D46-421E-A901-FAD7BFDEF727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F2B22-8D46-421E-A901-FAD7BFDEF727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B802F761-9E06-4746-AD57-5266BDE8BA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="215">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>wind generation</t>
+  </si>
+  <si>
+    <t>flo_fr</t>
   </si>
 </sst>
 </file>
@@ -3681,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
   <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
@@ -3824,6 +3827,17 @@
       </c>
       <c r="F10" s="11">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="D11" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:12">
@@ -5839,7 +5853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
   <cols>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B802F761-9E06-4746-AD57-5266BDE8BA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA5C853-3885-42F2-9007-561F953FF603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="214">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -680,9 +680,6 @@
   </si>
   <si>
     <t>wind generation</t>
-  </si>
-  <si>
-    <t>flo_fr</t>
   </si>
 </sst>
 </file>
@@ -3684,8 +3681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
   <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
@@ -3827,17 +3824,6 @@
       </c>
       <c r="F10" s="11">
         <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="D11" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:12">
@@ -5853,7 +5839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
   <cols>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA5C853-3885-42F2-9007-561F953FF603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ECC69C-7AB9-4410-86BC-9919033EE3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ECC69C-7AB9-4410-86BC-9919033EE3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B400B8D5-4D75-4FF9-B2D6-6E5DB5732C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B400B8D5-4D75-4FF9-B2D6-6E5DB5732C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FC2090-78B1-460F-9EFC-03FD42D1733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="216">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -659,6 +659,12 @@
   </si>
   <si>
     <t>flo_mark</t>
+  </si>
+  <si>
+    <t>hydrogen_allsect</t>
+  </si>
+  <si>
+    <t>Hydrogen demand - all sectors</t>
   </si>
   <si>
     <t>CHE</t>
@@ -703,7 +709,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.0;\-#,##0.0;&quot;-&quot;"/>
     <numFmt numFmtId="176" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="59">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +1070,20 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="47">
@@ -1588,7 +1608,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="435">
+  <cellStyleXfs count="437">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2136,8 +2156,10 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -2161,8 +2183,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="431" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="234"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="234" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="435">
+  <cellStyles count="437">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{822ECCD2-03B4-4EB0-AADE-6DECEB39BB19}"/>
     <cellStyle name="20% - Accent1 3" xfId="5" xr:uid="{58CA3325-8B37-45C5-A177-73E6AEE43B64}"/>
     <cellStyle name="20% - Accent2 2" xfId="6" xr:uid="{3C5AA3C1-DAA0-472F-BECC-C64D10D55099}"/>
@@ -2375,6 +2399,7 @@
     <cellStyle name="Monétaire [0]_03tabmat" xfId="208" xr:uid="{F0DE3656-7A58-4CA3-A5EE-8576552EC653}"/>
     <cellStyle name="Monétaire_03tabmat" xfId="209" xr:uid="{E08D72EA-6991-424D-A48D-6801B506315C}"/>
     <cellStyle name="Neutral 2" xfId="211" xr:uid="{0BD2AEA9-BAC5-48AA-B1A7-8F95AAE6853E}"/>
+    <cellStyle name="Neutral 2 2" xfId="435" xr:uid="{773FC3D2-CB25-40C1-9022-B7616488FC25}"/>
     <cellStyle name="Neutral 3" xfId="210" xr:uid="{2435363D-5388-4D62-AE78-289118217843}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="212" xr:uid="{347F5622-C417-4F2E-B072-ECA7EBFFEE51}"/>
@@ -2474,6 +2499,7 @@
     <cellStyle name="Normal 3 5" xfId="306" xr:uid="{6443DAD9-14AD-440B-897A-2E9A24F0DF1D}"/>
     <cellStyle name="Normal 3 6" xfId="307" xr:uid="{E81CCC51-42D9-4E87-8496-29697C117EDE}"/>
     <cellStyle name="Normal 3 7" xfId="308" xr:uid="{5928F6C9-137F-431B-BF0D-7549BEA7EBFE}"/>
+    <cellStyle name="Normal 3 8" xfId="436" xr:uid="{552B16F0-55E2-4A8F-AA64-ACE13CE218AC}"/>
     <cellStyle name="Normal 30" xfId="309" xr:uid="{55B4AFDB-2E32-4F94-ABBB-FD32410C9D32}"/>
     <cellStyle name="Normal 31" xfId="310" xr:uid="{221EABEA-5450-4B12-B481-461C2BAE31B9}"/>
     <cellStyle name="Normal 32" xfId="311" xr:uid="{99908D0B-751D-4CA3-A3C2-C2D00549AE1A}"/>
@@ -3053,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -3078,9 +3104,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:R22"/>
+  <dimension ref="B3:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -3139,7 +3167,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -3171,10 +3199,10 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P5" t="s">
         <v>29</v>
@@ -3183,7 +3211,7 @@
         <v>39</v>
       </c>
       <c r="R5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -3197,10 +3225,10 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P6" t="s">
         <v>29</v>
@@ -3209,7 +3237,7 @@
         <v>39</v>
       </c>
       <c r="R6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -3301,10 +3329,10 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -3315,10 +3343,10 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -3329,10 +3357,10 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -3340,41 +3368,47 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
         <v>197</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>198</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>199</v>
-      </c>
-      <c r="E20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="C21" t="s">
-        <v>204</v>
       </c>
       <c r="E21" t="s">
         <v>200</v>
@@ -3382,15 +3416,23 @@
     </row>
     <row r="22" spans="2:7">
       <c r="C22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22" t="s">
         <v>200</v>
       </c>
     </row>
+    <row r="23" spans="2:7">
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:C332">
-    <sortCondition ref="C17:C332"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:C333">
+    <sortCondition ref="C18:C333"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4254,18 +4296,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EBD23C-EA82-4040-97D7-F532F0547462}">
-  <dimension ref="A2:P95"/>
+  <dimension ref="A2:N102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
   <cols>
     <col min="1" max="1" width="11.3984375" style="11"/>
-    <col min="2" max="2" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.3984375" style="11"/>
+    <col min="2" max="2" width="12.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.3984375" style="11"/>
+    <col min="5" max="5" width="13.53125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.9296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" style="11"/>
+    <col min="12" max="12" width="17.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.73046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.3984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="17.649999999999999" thickBot="1">
+    <row r="2" spans="1:14" ht="17.649999999999999" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="20" t="s">
         <v>73</v>
@@ -4273,13 +4328,13 @@
       <c r="E2" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickTop="1" thickBot="1">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickTop="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>75</v>
@@ -4288,62 +4343,56 @@
         <v>53</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>74</v>
+        <v>188</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2022</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2022</v>
+        <v>60</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>60</v>
+        <v>84</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="13.15">
+    <row r="4" spans="1:14" ht="13.15">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
         <v>139</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="K4" s="11">
+      <c r="I4" s="11">
         <v>0.05</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6">
         <v>1055.55</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="13.15">
+    <row r="5" spans="1:14" ht="13.15">
       <c r="A5" s="13"/>
       <c r="B5" s="19" t="s">
         <v>77</v>
@@ -4351,1481 +4400,1536 @@
       <c r="E5" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="11">
+      <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6">
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="13.15">
+    <row r="6" spans="1:14" ht="13.15">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="K6" s="11">
+      <c r="I6" s="11">
         <v>2025</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="13.15">
+    <row r="7" spans="1:14" ht="13.15">
       <c r="A7" s="13"/>
       <c r="B7" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="K7" s="11">
+      <c r="I7" s="11">
         <v>1</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="13.15">
+    <row r="8" spans="1:14" ht="13.15">
       <c r="A8" s="13"/>
       <c r="B8" s="19" t="s">
         <v>80</v>
       </c>
+      <c r="F8" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G8" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I8" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="K8" s="11">
+      <c r="I8" s="11">
         <v>2.2201</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6">
         <v>1.05555</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="13.15">
+    <row r="9" spans="1:14" ht="13.15">
       <c r="A9" s="13"/>
       <c r="B9" s="19" t="s">
         <v>81</v>
       </c>
+      <c r="F9" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G9" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="11">
+      <c r="I9" s="11">
         <v>2.1427</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6">
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="13.15">
+    <row r="10" spans="1:14" ht="13.15">
       <c r="A10" s="13"/>
       <c r="B10" s="19" t="s">
         <v>83</v>
       </c>
+      <c r="F10" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G10" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I10" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="K10" s="11">
+      <c r="I10" s="11">
         <v>2.077</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6">
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="13.15">
+    <row r="11" spans="1:14" ht="13.15">
       <c r="A11" s="13"/>
       <c r="B11" s="19" t="s">
         <v>76</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G11" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I11" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K11" s="11">
+      <c r="I11" s="11">
         <v>2.0358000000000001</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="13.15">
+    <row r="12" spans="1:14" ht="13.15">
       <c r="A12" s="13"/>
       <c r="B12" s="19" t="s">
         <v>87</v>
       </c>
+      <c r="F12" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G12" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I12" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="K12" s="11">
+      <c r="I12" s="11">
         <v>1.9870000000000001</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6">
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="13.15">
+    <row r="13" spans="1:14" ht="13.15">
       <c r="A13" s="13"/>
       <c r="B13" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="F13" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G13" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="11">
+      <c r="I13" s="11">
         <v>1.9192</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="13.15">
+    <row r="14" spans="1:14" ht="13.15">
       <c r="A14" s="13"/>
       <c r="B14" s="19" t="s">
         <v>92</v>
       </c>
+      <c r="F14" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G14" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I14" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="11">
+      <c r="I14" s="11">
         <v>1.8468</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6">
         <v>5.8615199999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="13.15">
+    <row r="15" spans="1:14" ht="13.15">
       <c r="A15" s="13"/>
       <c r="B15" s="19" t="s">
         <v>95</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G15" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K15" s="11">
+      <c r="I15" s="11">
         <v>1.7799</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="P15" s="6">
+      <c r="N15" s="6">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="13.15">
+    <row r="16" spans="1:14" ht="13.15">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
         <v>98</v>
       </c>
+      <c r="F16" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G16" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I16" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="11">
+      <c r="I16" s="11">
         <v>1.722</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="6">
+      <c r="N16" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="13.15">
+    <row r="17" spans="1:14" ht="13.15">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
         <v>100</v>
       </c>
+      <c r="F17" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G17" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I17" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="K17" s="11">
+      <c r="I17" s="11">
         <v>1.6836</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="6">
+      <c r="N17" s="6">
         <v>37.68</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="13.15">
+    <row r="18" spans="1:14" ht="13.15">
       <c r="B18" s="19" t="s">
         <v>102</v>
       </c>
+      <c r="F18" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G18" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I18" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K18" s="11">
+      <c r="I18" s="11">
         <v>1.6446000000000001</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P18" s="6">
+      <c r="N18" s="6">
         <v>2139.4548</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="13.15">
+    <row r="19" spans="1:14" ht="13.15">
       <c r="B19" s="19" t="s">
         <v>104</v>
       </c>
+      <c r="F19" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G19" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I19" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="K19" s="11">
+      <c r="I19" s="11">
         <v>1.6102000000000001</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="P19" s="6">
+      <c r="N19" s="6">
         <v>2.78</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="13.15">
+    <row r="20" spans="1:14" ht="13.15">
       <c r="B20" s="19" t="s">
         <v>106</v>
       </c>
+      <c r="F20" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G20" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I20" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="K20" s="11">
+      <c r="I20" s="11">
         <v>1.5770999999999999</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="L20" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="M20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P20" s="6">
+      <c r="N20" s="6">
         <v>3.6</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="13.15">
+    <row r="21" spans="1:14" ht="13.15">
       <c r="B21" s="19" t="s">
         <v>108</v>
       </c>
+      <c r="F21" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G21" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I21" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K21" s="11">
+      <c r="I21" s="11">
         <v>1.5488</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="L21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="M21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P21" s="6">
+      <c r="N21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="13.15">
+    <row r="22" spans="1:14" ht="13.15">
       <c r="B22" s="19" t="s">
         <v>111</v>
       </c>
+      <c r="F22" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G22" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I22" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="11">
+      <c r="I22" s="11">
         <v>1.5224</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="L22" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="M22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P22" s="6">
+      <c r="N22" s="6">
         <v>31.536000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="13.15">
+    <row r="23" spans="1:14" ht="13.15">
       <c r="B23" s="19" t="s">
         <v>114</v>
       </c>
+      <c r="F23" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G23" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I23" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="11">
+      <c r="I23" s="11">
         <v>1.5058</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="M23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P23" s="6">
+      <c r="N23" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="13.15">
+    <row r="24" spans="1:14" ht="13.15">
       <c r="B24" s="19" t="s">
         <v>117</v>
       </c>
+      <c r="F24" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G24" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I24" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="11">
+      <c r="I24" s="11">
         <v>1.4844999999999999</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="L24" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="M24" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="11">
+      <c r="N24" s="11">
         <v>5.8615199999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="13.15">
+    <row r="25" spans="1:14" ht="13.15">
       <c r="B25" s="19" t="s">
         <v>119</v>
       </c>
+      <c r="F25" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G25" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I25" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K25" s="11">
+      <c r="I25" s="11">
         <v>1.4518</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="L25" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="M25" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P25" s="11">
+      <c r="N25" s="11">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="13.15">
+    <row r="26" spans="1:14" ht="13.15">
       <c r="B26" s="19" t="s">
         <v>121</v>
       </c>
+      <c r="F26" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G26" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I26" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="11">
+      <c r="I26" s="11">
         <v>1.4198999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="13.15">
+    <row r="27" spans="1:14" ht="13.15">
       <c r="B27" s="19" t="s">
         <v>123</v>
       </c>
+      <c r="F27" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G27" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K27" s="11">
+      <c r="I27" s="11">
         <v>1.3986000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="13.15">
+    <row r="28" spans="1:14" ht="13.15">
       <c r="B28" s="19" t="s">
         <v>126</v>
       </c>
+      <c r="F28" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G28" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="11">
+      <c r="I28" s="11">
         <v>1.3727</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13.15">
+    <row r="29" spans="1:14" ht="13.15">
       <c r="B29" s="19" t="s">
         <v>128</v>
       </c>
+      <c r="F29" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G29" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I29" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K29" s="11">
+      <c r="I29" s="11">
         <v>1.3369</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="13.15">
+    <row r="30" spans="1:14" ht="13.15">
       <c r="B30" s="19" t="s">
         <v>129</v>
       </c>
+      <c r="F30" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G30" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I30" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="11">
+      <c r="I30" s="11">
         <v>1.2967</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="13.15">
+    <row r="31" spans="1:14" ht="13.15">
       <c r="B31" s="19" t="s">
         <v>131</v>
       </c>
+      <c r="F31" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G31" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I31" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="11">
+      <c r="I31" s="11">
         <v>1.2583</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="13.15">
+    <row r="32" spans="1:14" ht="13.15">
       <c r="B32" s="19" t="s">
         <v>133</v>
       </c>
+      <c r="F32" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G32" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I32" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="H32" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K32" s="11">
+      <c r="I32" s="11">
         <v>1.2253000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="13.15">
+    <row r="33" spans="2:9" ht="13.15">
       <c r="B33" s="19" t="s">
         <v>135</v>
       </c>
+      <c r="F33" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G33" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I33" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="H33" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K33" s="11">
+      <c r="I33" s="11">
         <v>1.2023999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="13.15">
+    <row r="34" spans="2:9" ht="13.15">
       <c r="B34" s="19" t="s">
         <v>137</v>
       </c>
+      <c r="F34" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G34" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I34" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K34" s="11">
+      <c r="I34" s="11">
         <v>1.1931</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="13.15">
+    <row r="35" spans="2:9" ht="13.15">
       <c r="B35" s="19" t="s">
         <v>138</v>
       </c>
+      <c r="F35" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G35" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I35" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K35" s="11">
+      <c r="I35" s="11">
         <v>1.1793</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="13.15">
+    <row r="36" spans="2:9" ht="13.15">
       <c r="B36" s="19" t="s">
         <v>139</v>
       </c>
+      <c r="F36" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G36" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I36" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="H36" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K36" s="11">
+      <c r="I36" s="11">
         <v>1.1552</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="13.15">
+    <row r="37" spans="2:9" ht="13.15">
       <c r="B37" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="F37" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G37" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I37" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="K37" s="11">
+      <c r="I37" s="11">
         <v>1.1334</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="13.15">
+    <row r="38" spans="2:9" ht="13.15">
       <c r="B38" s="19" t="s">
         <v>141</v>
       </c>
+      <c r="F38" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G38" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I38" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="H38" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K38" s="11">
+      <c r="I38" s="11">
         <v>1.1136999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="13.15">
+    <row r="39" spans="2:9" ht="13.15">
       <c r="B39" s="19" t="s">
         <v>142</v>
       </c>
+      <c r="F39" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G39" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I39" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="H39" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K39" s="11">
+      <c r="I39" s="11">
         <v>1.0934999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="13.15">
+    <row r="40" spans="2:9" ht="13.15">
       <c r="B40" s="19" t="s">
         <v>143</v>
       </c>
+      <c r="F40" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G40" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I40" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="K40" s="11">
+      <c r="I40" s="11">
         <v>1.0831</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="13.15">
+    <row r="41" spans="2:9" ht="13.15">
       <c r="B41" s="19" t="s">
         <v>144</v>
       </c>
+      <c r="F41" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G41" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I41" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="H41" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K41" s="11">
+      <c r="I41" s="11">
         <v>1.0719000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="13.15">
+    <row r="42" spans="2:9" ht="13.15">
       <c r="B42" s="19" t="s">
         <v>145</v>
       </c>
+      <c r="F42" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G42" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I42" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="H42" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K42" s="11">
+      <c r="I42" s="11">
         <v>1.0519000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="13.15">
+    <row r="43" spans="2:9" ht="13.15">
       <c r="B43" s="19" t="s">
         <v>146</v>
       </c>
+      <c r="F43" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G43" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I43" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="K43" s="11">
+      <c r="I43" s="11">
         <v>1.0274000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="13.15">
+    <row r="44" spans="2:9" ht="13.15">
       <c r="B44" s="19" t="s">
         <v>147</v>
       </c>
+      <c r="F44" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G44" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I44" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="H44" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K44" s="11">
+      <c r="I44" s="11">
         <v>1.0091000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="13.15">
+    <row r="45" spans="2:9" ht="13.15">
       <c r="B45" s="19" t="s">
         <v>148</v>
       </c>
+      <c r="F45" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="G45" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="I45" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K45" s="11">
+      <c r="I45" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="13.15">
+    <row r="46" spans="2:9" ht="13.15">
       <c r="B46" s="19" t="s">
         <v>149</v>
       </c>
+      <c r="F46" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G46" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I46" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K46" s="11">
+      <c r="I46" s="11">
         <v>0.98960000000000004</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="13.15">
+    <row r="47" spans="2:9" ht="13.15">
       <c r="B47" s="19" t="s">
         <v>150</v>
       </c>
+      <c r="F47" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G47" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I47" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="K47" s="11">
+      <c r="I47" s="11">
         <v>0.97809999999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="13.15">
+    <row r="48" spans="2:9" ht="13.15">
       <c r="B48" s="19" t="s">
         <v>151</v>
       </c>
+      <c r="F48" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G48" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I48" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K48" s="11">
+      <c r="I48" s="11">
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="13.15">
+    <row r="49" spans="2:9" ht="13.15">
       <c r="B49" s="19" t="s">
         <v>152</v>
       </c>
+      <c r="F49" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G49" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I49" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="H49" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K49" s="11">
+      <c r="I49" s="11">
         <v>0.94910000000000005</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="13.15">
+    <row r="50" spans="2:9" ht="13.15">
       <c r="B50" s="19" t="s">
         <v>153</v>
       </c>
+      <c r="F50" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="G50" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I50" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="H50" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="K50" s="11">
+      <c r="I50" s="11">
         <v>0.92969999999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="13.15">
+    <row r="51" spans="2:9" ht="13.15">
       <c r="B51" s="19" t="s">
         <v>154</v>
       </c>
+      <c r="F51" s="11" t="str">
+        <f>F46</f>
+        <v>G_CUREX</v>
+      </c>
       <c r="G51" s="11" t="str">
-        <f>G46</f>
-        <v>G_CUREX</v>
-      </c>
-      <c r="I51" s="11" t="str">
-        <f t="shared" ref="I51:K51" si="0">I46</f>
+        <f t="shared" ref="G51:I51" si="0">G46</f>
         <v>USD20</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="H51" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="K51" s="11">
+      <c r="I51" s="11">
         <f t="shared" si="0"/>
         <v>0.98960000000000004</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="13.15">
+    <row r="52" spans="2:9" ht="13.15">
       <c r="B52" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="H52" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="K52" s="11">
+      <c r="I52" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.15">
+    <row r="53" spans="2:9" ht="13.15">
       <c r="B53" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="H53" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="K53" s="11">
+      <c r="I53" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="13.15">
+    <row r="54" spans="2:9" ht="13.15">
       <c r="B54" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="F54" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="H54" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="K54" s="11">
+      <c r="I54" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
-      <c r="G55" s="11" t="s">
+    <row r="55" spans="2:9">
+      <c r="F55" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="H55" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K55" s="11">
+      <c r="I55" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
-      <c r="G56" s="11" t="s">
+    <row r="56" spans="2:9">
+      <c r="F56" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="H56" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="K56" s="11">
+      <c r="I56" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
-      <c r="G57" s="11" t="s">
+    <row r="57" spans="2:9">
+      <c r="F57" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="H57" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="K57" s="11">
+      <c r="I57" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
-      <c r="G58" s="11" t="s">
+    <row r="58" spans="2:9">
+      <c r="F58" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="H58" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="K58" s="11">
+      <c r="I58" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
-      <c r="G59" s="11" t="s">
+    <row r="59" spans="2:9">
+      <c r="F59" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="H59" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K59" s="11">
+      <c r="I59" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
-      <c r="G60" s="11" t="s">
+    <row r="60" spans="2:9">
+      <c r="F60" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="H60" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="K60" s="11">
+      <c r="I60" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
-      <c r="G61" s="11" t="s">
+    <row r="61" spans="2:9">
+      <c r="F61" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="H61" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="K61" s="11">
+      <c r="I61" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
-      <c r="G62" s="11" t="s">
+    <row r="62" spans="2:9">
+      <c r="F62" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="H62" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="K62" s="11">
+      <c r="I62" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:11">
-      <c r="G63" s="11" t="s">
+    <row r="63" spans="2:9">
+      <c r="F63" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="H63" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="K63" s="11">
+      <c r="I63" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
-      <c r="G64" s="11" t="s">
+    <row r="64" spans="2:9">
+      <c r="F64" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="H64" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="K64" s="11">
+      <c r="I64" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="65" spans="7:11">
-      <c r="G65" s="11" t="s">
+    <row r="65" spans="6:9">
+      <c r="F65" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="H65" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="K65" s="11">
+      <c r="I65" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="66" spans="7:11">
-      <c r="G66" s="11" t="s">
+    <row r="66" spans="6:9">
+      <c r="F66" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="H66" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K66" s="11">
+      <c r="I66" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="67" spans="7:11">
-      <c r="G67" s="11" t="s">
+    <row r="67" spans="6:9">
+      <c r="F67" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="H67" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K67" s="11">
+      <c r="I67" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="68" spans="7:11">
-      <c r="G68" s="11" t="s">
+    <row r="68" spans="6:9">
+      <c r="F68" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="H68" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="K68" s="11">
+      <c r="I68" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="69" spans="7:11">
-      <c r="G69" s="11" t="s">
+    <row r="69" spans="6:9">
+      <c r="F69" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="H69" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K69" s="11">
+      <c r="I69" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="70" spans="7:11">
-      <c r="G70" s="11" t="s">
+    <row r="70" spans="6:9">
+      <c r="F70" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J70" s="11" t="s">
+      <c r="H70" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K70" s="11">
+      <c r="I70" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="71" spans="7:11">
-      <c r="G71" s="11" t="s">
+    <row r="71" spans="6:9">
+      <c r="F71" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="H71" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="11">
+      <c r="I71" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="72" spans="7:11">
-      <c r="G72" s="11" t="s">
+    <row r="72" spans="6:9">
+      <c r="F72" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="H72" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K72" s="11">
+      <c r="I72" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="73" spans="7:11">
-      <c r="G73" s="11" t="s">
+    <row r="73" spans="6:9">
+      <c r="F73" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J73" s="11" t="s">
+      <c r="H73" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="K73" s="11">
+      <c r="I73" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="74" spans="7:11">
-      <c r="G74" s="11" t="s">
+    <row r="74" spans="6:9">
+      <c r="F74" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="H74" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="K74" s="11">
+      <c r="I74" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="75" spans="7:11">
-      <c r="G75" s="11" t="s">
+    <row r="75" spans="6:9">
+      <c r="F75" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="H75" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K75" s="11">
+      <c r="I75" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="76" spans="7:11">
-      <c r="G76" s="11" t="s">
+    <row r="76" spans="6:9">
+      <c r="F76" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="H76" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K76" s="11">
+      <c r="I76" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="77" spans="7:11">
-      <c r="G77" s="11" t="s">
+    <row r="77" spans="6:9">
+      <c r="F77" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="H77" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="K77" s="11">
+      <c r="I77" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="78" spans="7:11">
-      <c r="G78" s="11" t="s">
+    <row r="78" spans="6:9">
+      <c r="F78" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="H78" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="K78" s="11">
+      <c r="I78" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="79" spans="7:11">
-      <c r="G79" s="11" t="s">
+    <row r="79" spans="6:9">
+      <c r="F79" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="H79" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="K79" s="11">
+      <c r="I79" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="80" spans="7:11">
-      <c r="G80" s="11" t="s">
+    <row r="80" spans="6:9">
+      <c r="F80" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="H80" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="K80" s="11">
+      <c r="I80" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="81" spans="7:11">
-      <c r="G81" s="11" t="s">
+    <row r="81" spans="6:9">
+      <c r="F81" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="H81" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="K81" s="11">
+      <c r="I81" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="82" spans="7:11">
-      <c r="G82" s="11" t="s">
+    <row r="82" spans="6:9">
+      <c r="F82" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="H82" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K82" s="11">
+      <c r="I82" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="83" spans="7:11">
-      <c r="G83" s="11" t="s">
+    <row r="83" spans="6:9">
+      <c r="F83" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="H83" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K83" s="11">
+      <c r="I83" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="84" spans="7:11">
-      <c r="G84" s="11" t="s">
+    <row r="84" spans="6:9">
+      <c r="F84" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="H84" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="K84" s="11">
+      <c r="I84" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="85" spans="7:11">
-      <c r="G85" s="11" t="s">
+    <row r="85" spans="6:9">
+      <c r="F85" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J85" s="11" t="s">
+      <c r="H85" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K85" s="11">
+      <c r="I85" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="86" spans="7:11">
-      <c r="G86" s="11" t="s">
+    <row r="86" spans="6:9">
+      <c r="F86" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J86" s="11" t="s">
+      <c r="H86" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K86" s="11">
+      <c r="I86" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="87" spans="7:11">
-      <c r="G87" s="11" t="s">
+    <row r="87" spans="6:9">
+      <c r="F87" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J87" s="11" t="s">
+      <c r="H87" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="K87" s="11">
+      <c r="I87" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="88" spans="7:11">
-      <c r="G88" s="11" t="s">
+    <row r="88" spans="6:9">
+      <c r="F88" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J88" s="11" t="s">
+      <c r="H88" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K88" s="11">
+      <c r="I88" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="89" spans="7:11">
-      <c r="G89" s="11" t="s">
+    <row r="89" spans="6:9">
+      <c r="F89" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J89" s="11" t="s">
+      <c r="H89" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K89" s="11">
+      <c r="I89" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="90" spans="7:11">
-      <c r="G90" s="11" t="s">
+    <row r="90" spans="6:9">
+      <c r="F90" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J90" s="11" t="s">
+      <c r="H90" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K90" s="11">
+      <c r="I90" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="91" spans="7:11">
-      <c r="G91" s="11" t="s">
+    <row r="91" spans="6:9">
+      <c r="F91" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="H91" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="K91" s="11">
+      <c r="I91" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="92" spans="7:11">
-      <c r="G92" s="11" t="s">
+    <row r="92" spans="6:9">
+      <c r="F92" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="H92" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K92" s="11">
+      <c r="I92" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="93" spans="7:11">
-      <c r="G93" s="11" t="s">
+    <row r="93" spans="6:9">
+      <c r="F93" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="H93" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="K93" s="11">
+      <c r="I93" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="94" spans="7:11">
-      <c r="G94" s="11" t="s">
+    <row r="94" spans="6:9">
+      <c r="F94" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J94" s="11" t="s">
+      <c r="H94" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="K94" s="11">
+      <c r="I94" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="95" spans="7:11">
-      <c r="G95" s="11" t="s">
+    <row r="95" spans="6:9">
+      <c r="F95" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J95" s="11" t="str">
-        <f>J51</f>
+      <c r="H95" s="11" t="str">
+        <f>H51</f>
         <v>USD21_alt</v>
       </c>
-      <c r="K95" s="11">
+      <c r="I95" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="5:10" ht="17.649999999999999" thickBot="1">
+      <c r="E99" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="5:10" ht="15" thickTop="1" thickBot="1">
+      <c r="E100" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I100" s="4">
+        <v>2022</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="5:10" ht="14.25">
+      <c r="E101"/>
+      <c r="F101" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H101" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I101" s="22">
+        <f>1.10926234054354*I40</f>
+        <v>1.201442041042708</v>
+      </c>
+    </row>
+    <row r="102" spans="5:10" ht="14.25">
+      <c r="E102"/>
+      <c r="F102" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G102"/>
+      <c r="H102" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I102" s="22">
+        <f>I84</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5839,7 +5943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE1F0D2-7682-484B-9627-54FDDA96E26C}">
   <dimension ref="B3:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75"/>
   <cols>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FC2090-78B1-460F-9EFC-03FD42D1733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282203F1-2925-4911-8ADE-6841EC85B67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="219">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -100,12 +100,6 @@
     <t>bioenergy</t>
   </si>
   <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>hydrogen</t>
   </si>
   <si>
@@ -121,12 +115,6 @@
     <t>solar</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>ELC</t>
   </si>
   <si>
@@ -667,6 +655,27 @@
     <t>Hydrogen demand - all sectors</t>
   </si>
   <si>
+    <t>windon</t>
+  </si>
+  <si>
+    <t>windoff</t>
+  </si>
+  <si>
+    <t>wind onshore</t>
+  </si>
+  <si>
+    <t>wind offshore</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
     <t>CHE</t>
   </si>
   <si>
@@ -676,7 +685,7 @@
     <t>elc_spv-CHE</t>
   </si>
   <si>
-    <t>solar generation</t>
+    <t>solar electricity generation</t>
   </si>
   <si>
     <t>TWh</t>
@@ -685,7 +694,7 @@
     <t>elc_won-CHE</t>
   </si>
   <si>
-    <t>wind generation</t>
+    <t>onshore wind electricity generation</t>
   </si>
 </sst>
 </file>
@@ -3079,21 +3088,21 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="F5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3104,10 +3113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:R23"/>
+  <dimension ref="B3:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3167,7 +3176,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>10</v>
@@ -3199,24 +3208,27 @@
         <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:18">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -3225,128 +3237,158 @@
         <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:18">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:18">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:18">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:18">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:18">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:18">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:18">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:18">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>205</v>
+      </c>
+      <c r="D14" t="s">
+        <v>207</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:18">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -3354,13 +3396,13 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -3368,13 +3410,13 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -3382,57 +3424,77 @@
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
         <v>197</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>198</v>
       </c>
-      <c r="D21" t="s">
-        <v>199</v>
-      </c>
       <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="C22" t="s">
-        <v>204</v>
-      </c>
-      <c r="E22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="C23" t="s">
-        <v>205</v>
-      </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:C333">
-    <sortCondition ref="C18:C333"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:C334">
+    <sortCondition ref="C19:C334"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3457,7 +3519,7 @@
   <sheetData>
     <row r="3" spans="2:7">
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -3467,28 +3529,28 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="14.25">
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>"msy"&amp;COUNT(E14:E46)&amp;"_"&amp;MAX(E14:E46)</f>
@@ -3508,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="14.25">
@@ -3516,7 +3578,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ref="E14:G14" si="1">$B$4</f>
@@ -3536,7 +3598,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E15" s="6">
         <f>E14+3</f>
@@ -3556,7 +3618,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E16" s="6">
         <f>E15+5</f>
@@ -3576,7 +3638,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ref="E17:E20" si="2">E16+5</f>
@@ -3596,7 +3658,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="2"/>
@@ -3616,7 +3678,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="2"/>
@@ -3632,7 +3694,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="2"/>
@@ -3644,7 +3706,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="14.25">
@@ -3652,7 +3714,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="14.25">
@@ -3660,7 +3722,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="14.25">
@@ -3668,37 +3730,37 @@
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="14.25">
       <c r="B25" s="9"/>
       <c r="D25" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="14.25">
       <c r="B26" s="9"/>
       <c r="D26" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="14.25">
       <c r="B27" s="9"/>
       <c r="D27" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="14.25">
       <c r="B28" s="9"/>
       <c r="D28" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="14.25">
       <c r="B29" s="9"/>
       <c r="D29" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="14.25">
@@ -3772,7 +3834,7 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -3780,42 +3842,42 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="D6" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E6" s="11">
         <v>0</v>
@@ -3826,7 +3888,7 @@
     </row>
     <row r="7" spans="2:12">
       <c r="D7" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E7" s="11">
         <v>0</v>
@@ -3837,7 +3899,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="D8" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
@@ -3848,7 +3910,7 @@
     </row>
     <row r="9" spans="2:12">
       <c r="D9" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E9" s="11">
         <v>0</v>
@@ -3859,7 +3921,7 @@
     </row>
     <row r="10" spans="2:12">
       <c r="D10" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E10" s="11">
         <v>0</v>
@@ -3870,7 +3932,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -3878,50 +3940,50 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="G14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>59</v>
-      </c>
       <c r="I14" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:12">
       <c r="D15" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F15" s="11">
         <v>2222</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:12">
       <c r="D16" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F16" s="11">
         <v>8888</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="12.75">
@@ -4323,13 +4385,13 @@
     <row r="2" spans="1:14" ht="17.649999999999999" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -4337,56 +4399,56 @@
     <row r="3" spans="1:14" ht="15" thickTop="1" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I3" s="4">
         <v>2022</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.15">
       <c r="A4" s="13"/>
       <c r="B4" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I4" s="11">
         <v>0.05</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N4" s="6">
         <v>1055.55</v>
@@ -4395,25 +4457,25 @@
     <row r="5" spans="1:14" ht="13.15">
       <c r="A5" s="13"/>
       <c r="B5" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N5" s="6">
         <v>3.6</v>
@@ -4422,19 +4484,19 @@
     <row r="6" spans="1:14" ht="13.15">
       <c r="A6" s="13"/>
       <c r="B6" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I6" s="11">
         <v>2025</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N6" s="6">
         <v>1000</v>
@@ -4443,19 +4505,19 @@
     <row r="7" spans="1:14" ht="13.15">
       <c r="A7" s="13"/>
       <c r="B7" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I7" s="11">
         <v>1</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N7" s="6">
         <v>1000</v>
@@ -4464,25 +4526,25 @@
     <row r="8" spans="1:14" ht="13.15">
       <c r="A8" s="13"/>
       <c r="B8" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I8" s="11">
         <v>2.2201</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N8" s="6">
         <v>1.05555</v>
@@ -4491,25 +4553,25 @@
     <row r="9" spans="1:14" ht="13.15">
       <c r="A9" s="13"/>
       <c r="B9" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I9" s="11">
         <v>2.1427</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N9" s="6">
         <v>4.1868000000000002E-2</v>
@@ -4518,25 +4580,25 @@
     <row r="10" spans="1:14" ht="13.15">
       <c r="A10" s="13"/>
       <c r="B10" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I10" s="11">
         <v>2.077</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N10" s="6">
         <v>41.868000000000002</v>
@@ -4545,25 +4607,25 @@
     <row r="11" spans="1:14" ht="13.15">
       <c r="A11" s="13"/>
       <c r="B11" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I11" s="11">
         <v>2.0358000000000001</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N11" s="6">
         <v>3.5999999999999999E-3</v>
@@ -4572,25 +4634,25 @@
     <row r="12" spans="1:14" ht="13.15">
       <c r="A12" s="13"/>
       <c r="B12" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I12" s="11">
         <v>1.9870000000000001</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N12" s="6">
         <v>1000000</v>
@@ -4599,25 +4661,25 @@
     <row r="13" spans="1:14" ht="13.15">
       <c r="A13" s="13"/>
       <c r="B13" s="19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I13" s="11">
         <v>1.9192</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N13" s="6">
         <v>1000</v>
@@ -4626,25 +4688,25 @@
     <row r="14" spans="1:14" ht="13.15">
       <c r="A14" s="13"/>
       <c r="B14" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I14" s="11">
         <v>1.8468</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N14" s="6">
         <v>5.8615199999999996</v>
@@ -4653,25 +4715,25 @@
     <row r="15" spans="1:14" ht="13.15">
       <c r="A15" s="13"/>
       <c r="B15" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I15" s="11">
         <v>1.7799</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="N15" s="6">
         <v>1E-3</v>
@@ -4680,25 +4742,25 @@
     <row r="16" spans="1:14" ht="13.15">
       <c r="A16" s="13"/>
       <c r="B16" s="19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I16" s="11">
         <v>1.722</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N16" s="6">
         <v>1000</v>
@@ -4707,25 +4769,25 @@
     <row r="17" spans="1:14" ht="13.15">
       <c r="A17" s="13"/>
       <c r="B17" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I17" s="11">
         <v>1.6836</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N17" s="6">
         <v>37.68</v>
@@ -4733,25 +4795,25 @@
     </row>
     <row r="18" spans="1:14" ht="13.15">
       <c r="B18" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I18" s="11">
         <v>1.6446000000000001</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N18" s="6">
         <v>2139.4548</v>
@@ -4759,25 +4821,25 @@
     </row>
     <row r="19" spans="1:14" ht="13.15">
       <c r="B19" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I19" s="11">
         <v>1.6102000000000001</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N19" s="6">
         <v>2.78</v>
@@ -4785,25 +4847,25 @@
     </row>
     <row r="20" spans="1:14" ht="13.15">
       <c r="B20" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I20" s="11">
         <v>1.5770999999999999</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N20" s="6">
         <v>3.6</v>
@@ -4811,25 +4873,25 @@
     </row>
     <row r="21" spans="1:14" ht="13.15">
       <c r="B21" s="19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I21" s="11">
         <v>1.5488</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N21" s="6">
         <v>1</v>
@@ -4837,25 +4899,25 @@
     </row>
     <row r="22" spans="1:14" ht="13.15">
       <c r="B22" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I22" s="11">
         <v>1.5224</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N22" s="6">
         <v>31.536000000000001</v>
@@ -4863,25 +4925,25 @@
     </row>
     <row r="23" spans="1:14" ht="13.15">
       <c r="B23" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I23" s="11">
         <v>1.5058</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N23" s="6">
         <v>120</v>
@@ -4889,25 +4951,25 @@
     </row>
     <row r="24" spans="1:14" ht="13.15">
       <c r="B24" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I24" s="11">
         <v>1.4844999999999999</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N24" s="11">
         <v>5.8615199999999996</v>
@@ -4915,25 +4977,25 @@
     </row>
     <row r="25" spans="1:14" ht="13.15">
       <c r="B25" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I25" s="11">
         <v>1.4518</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N25" s="11">
         <v>54</v>
@@ -4941,16 +5003,16 @@
     </row>
     <row r="26" spans="1:14" ht="13.15">
       <c r="B26" s="19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I26" s="11">
         <v>1.4198999999999999</v>
@@ -4958,16 +5020,16 @@
     </row>
     <row r="27" spans="1:14" ht="13.15">
       <c r="B27" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I27" s="11">
         <v>1.3986000000000001</v>
@@ -4975,16 +5037,16 @@
     </row>
     <row r="28" spans="1:14" ht="13.15">
       <c r="B28" s="19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I28" s="11">
         <v>1.3727</v>
@@ -4992,16 +5054,16 @@
     </row>
     <row r="29" spans="1:14" ht="13.15">
       <c r="B29" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I29" s="11">
         <v>1.3369</v>
@@ -5009,16 +5071,16 @@
     </row>
     <row r="30" spans="1:14" ht="13.15">
       <c r="B30" s="19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I30" s="11">
         <v>1.2967</v>
@@ -5026,16 +5088,16 @@
     </row>
     <row r="31" spans="1:14" ht="13.15">
       <c r="B31" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I31" s="11">
         <v>1.2583</v>
@@ -5043,16 +5105,16 @@
     </row>
     <row r="32" spans="1:14" ht="13.15">
       <c r="B32" s="19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I32" s="11">
         <v>1.2253000000000001</v>
@@ -5060,16 +5122,16 @@
     </row>
     <row r="33" spans="2:9" ht="13.15">
       <c r="B33" s="19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I33" s="11">
         <v>1.2023999999999999</v>
@@ -5077,16 +5139,16 @@
     </row>
     <row r="34" spans="2:9" ht="13.15">
       <c r="B34" s="19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I34" s="11">
         <v>1.1931</v>
@@ -5094,16 +5156,16 @@
     </row>
     <row r="35" spans="2:9" ht="13.15">
       <c r="B35" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I35" s="11">
         <v>1.1793</v>
@@ -5111,16 +5173,16 @@
     </row>
     <row r="36" spans="2:9" ht="13.15">
       <c r="B36" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I36" s="11">
         <v>1.1552</v>
@@ -5128,16 +5190,16 @@
     </row>
     <row r="37" spans="2:9" ht="13.15">
       <c r="B37" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I37" s="11">
         <v>1.1334</v>
@@ -5145,16 +5207,16 @@
     </row>
     <row r="38" spans="2:9" ht="13.15">
       <c r="B38" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I38" s="11">
         <v>1.1136999999999999</v>
@@ -5162,16 +5224,16 @@
     </row>
     <row r="39" spans="2:9" ht="13.15">
       <c r="B39" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I39" s="11">
         <v>1.0934999999999999</v>
@@ -5179,16 +5241,16 @@
     </row>
     <row r="40" spans="2:9" ht="13.15">
       <c r="B40" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I40" s="11">
         <v>1.0831</v>
@@ -5196,16 +5258,16 @@
     </row>
     <row r="41" spans="2:9" ht="13.15">
       <c r="B41" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I41" s="11">
         <v>1.0719000000000001</v>
@@ -5213,16 +5275,16 @@
     </row>
     <row r="42" spans="2:9" ht="13.15">
       <c r="B42" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I42" s="11">
         <v>1.0519000000000001</v>
@@ -5230,16 +5292,16 @@
     </row>
     <row r="43" spans="2:9" ht="13.15">
       <c r="B43" s="19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I43" s="11">
         <v>1.0274000000000001</v>
@@ -5247,16 +5309,16 @@
     </row>
     <row r="44" spans="2:9" ht="13.15">
       <c r="B44" s="19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I44" s="11">
         <v>1.0091000000000001</v>
@@ -5264,16 +5326,16 @@
     </row>
     <row r="45" spans="2:9" ht="13.15">
       <c r="B45" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I45" s="11">
         <v>1</v>
@@ -5281,16 +5343,16 @@
     </row>
     <row r="46" spans="2:9" ht="13.15">
       <c r="B46" s="19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I46" s="11">
         <v>0.98960000000000004</v>
@@ -5298,16 +5360,16 @@
     </row>
     <row r="47" spans="2:9" ht="13.15">
       <c r="B47" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G47" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="I47" s="11">
         <v>0.97809999999999997</v>
@@ -5315,16 +5377,16 @@
     </row>
     <row r="48" spans="2:9" ht="13.15">
       <c r="B48" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I48" s="11">
         <v>0.96499999999999997</v>
@@ -5332,16 +5394,16 @@
     </row>
     <row r="49" spans="2:9" ht="13.15">
       <c r="B49" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I49" s="11">
         <v>0.94910000000000005</v>
@@ -5349,16 +5411,16 @@
     </row>
     <row r="50" spans="2:9" ht="13.15">
       <c r="B50" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I50" s="11">
         <v>0.92969999999999997</v>
@@ -5366,7 +5428,7 @@
     </row>
     <row r="51" spans="2:9" ht="13.15">
       <c r="B51" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F51" s="11" t="str">
         <f>F46</f>
@@ -5377,7 +5439,7 @@
         <v>USD20</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I51" s="11">
         <f t="shared" si="0"/>
@@ -5386,13 +5448,13 @@
     </row>
     <row r="52" spans="2:9" ht="13.15">
       <c r="B52" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I52" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5400,13 +5462,13 @@
     </row>
     <row r="53" spans="2:9" ht="13.15">
       <c r="B53" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I53" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5414,13 +5476,13 @@
     </row>
     <row r="54" spans="2:9" ht="13.15">
       <c r="B54" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I54" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5428,10 +5490,10 @@
     </row>
     <row r="55" spans="2:9">
       <c r="F55" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I55" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5439,10 +5501,10 @@
     </row>
     <row r="56" spans="2:9">
       <c r="F56" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I56" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5450,10 +5512,10 @@
     </row>
     <row r="57" spans="2:9">
       <c r="F57" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I57" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5461,10 +5523,10 @@
     </row>
     <row r="58" spans="2:9">
       <c r="F58" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I58" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5472,10 +5534,10 @@
     </row>
     <row r="59" spans="2:9">
       <c r="F59" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I59" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5483,10 +5545,10 @@
     </row>
     <row r="60" spans="2:9">
       <c r="F60" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I60" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5494,10 +5556,10 @@
     </row>
     <row r="61" spans="2:9">
       <c r="F61" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I61" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5505,10 +5567,10 @@
     </row>
     <row r="62" spans="2:9">
       <c r="F62" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I62" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5516,10 +5578,10 @@
     </row>
     <row r="63" spans="2:9">
       <c r="F63" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I63" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5527,10 +5589,10 @@
     </row>
     <row r="64" spans="2:9">
       <c r="F64" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I64" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5538,10 +5600,10 @@
     </row>
     <row r="65" spans="6:9">
       <c r="F65" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I65" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5549,10 +5611,10 @@
     </row>
     <row r="66" spans="6:9">
       <c r="F66" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I66" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5560,10 +5622,10 @@
     </row>
     <row r="67" spans="6:9">
       <c r="F67" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I67" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5571,10 +5633,10 @@
     </row>
     <row r="68" spans="6:9">
       <c r="F68" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I68" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5582,10 +5644,10 @@
     </row>
     <row r="69" spans="6:9">
       <c r="F69" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I69" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5593,10 +5655,10 @@
     </row>
     <row r="70" spans="6:9">
       <c r="F70" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I70" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5604,10 +5666,10 @@
     </row>
     <row r="71" spans="6:9">
       <c r="F71" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I71" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5615,10 +5677,10 @@
     </row>
     <row r="72" spans="6:9">
       <c r="F72" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I72" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5626,10 +5688,10 @@
     </row>
     <row r="73" spans="6:9">
       <c r="F73" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5637,10 +5699,10 @@
     </row>
     <row r="74" spans="6:9">
       <c r="F74" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I74" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5648,10 +5710,10 @@
     </row>
     <row r="75" spans="6:9">
       <c r="F75" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I75" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5659,10 +5721,10 @@
     </row>
     <row r="76" spans="6:9">
       <c r="F76" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I76" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5670,10 +5732,10 @@
     </row>
     <row r="77" spans="6:9">
       <c r="F77" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I77" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5681,10 +5743,10 @@
     </row>
     <row r="78" spans="6:9">
       <c r="F78" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I78" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5692,10 +5754,10 @@
     </row>
     <row r="79" spans="6:9">
       <c r="F79" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I79" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5703,10 +5765,10 @@
     </row>
     <row r="80" spans="6:9">
       <c r="F80" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I80" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5714,10 +5776,10 @@
     </row>
     <row r="81" spans="6:9">
       <c r="F81" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I81" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5725,10 +5787,10 @@
     </row>
     <row r="82" spans="6:9">
       <c r="F82" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I82" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5736,10 +5798,10 @@
     </row>
     <row r="83" spans="6:9">
       <c r="F83" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I83" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5747,10 +5809,10 @@
     </row>
     <row r="84" spans="6:9">
       <c r="F84" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I84" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5758,10 +5820,10 @@
     </row>
     <row r="85" spans="6:9">
       <c r="F85" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I85" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5769,10 +5831,10 @@
     </row>
     <row r="86" spans="6:9">
       <c r="F86" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I86" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5780,10 +5842,10 @@
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I87" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5791,10 +5853,10 @@
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I88" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5802,10 +5864,10 @@
     </row>
     <row r="89" spans="6:9">
       <c r="F89" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I89" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5813,10 +5875,10 @@
     </row>
     <row r="90" spans="6:9">
       <c r="F90" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I90" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5824,10 +5886,10 @@
     </row>
     <row r="91" spans="6:9">
       <c r="F91" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I91" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5835,10 +5897,10 @@
     </row>
     <row r="92" spans="6:9">
       <c r="F92" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I92" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5846,10 +5908,10 @@
     </row>
     <row r="93" spans="6:9">
       <c r="F93" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I93" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5857,10 +5919,10 @@
     </row>
     <row r="94" spans="6:9">
       <c r="F94" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I94" s="11">
         <v>7.0000000000000007E-2</v>
@@ -5868,7 +5930,7 @@
     </row>
     <row r="95" spans="6:9">
       <c r="F95" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H95" s="11" t="str">
         <f>H51</f>
@@ -5880,39 +5942,39 @@
     </row>
     <row r="99" spans="5:10" ht="17.649999999999999" thickBot="1">
       <c r="E99" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="5:10" ht="15" thickTop="1" thickBot="1">
       <c r="E100" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I100" s="4">
         <v>2022</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="5:10" ht="14.25">
       <c r="E101"/>
       <c r="F101" s="21" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G101" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H101" s="21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I101" s="22">
         <f>1.10926234054354*I40</f>
@@ -5922,11 +5984,11 @@
     <row r="102" spans="5:10" ht="14.25">
       <c r="E102"/>
       <c r="F102" s="21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G102"/>
       <c r="H102" s="21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I102" s="22">
         <f>I84</f>
@@ -5954,26 +6016,26 @@
   <sheetData>
     <row r="3" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D5" s="6">
         <v>-1</v>
@@ -5981,10 +6043,10 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -5992,10 +6054,10 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -6003,10 +6065,10 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -6014,10 +6076,10 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -6025,10 +6087,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -6036,10 +6098,10 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -6047,10 +6109,10 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -6058,10 +6120,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -6069,10 +6131,10 @@
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -6080,10 +6142,10 @@
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -6091,10 +6153,10 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D16" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6102,10 +6164,10 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D17" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6113,10 +6175,10 @@
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D18" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6124,10 +6186,10 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D19" s="16">
         <v>1.0000000000000001E-5</v>
@@ -6135,10 +6197,10 @@
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -6146,73 +6208,73 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="17.649999999999999" thickBot="1">
       <c r="B25" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" thickTop="1" thickBot="1">
       <c r="B26" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282203F1-2925-4911-8ADE-6841EC85B67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A69DA0-0BCC-47A1-91C7-03F34F292D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A69DA0-0BCC-47A1-91C7-03F34F292D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FCE0CF-C356-4BB9-86CB-01894A5D5BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FCE0CF-C356-4BB9-86CB-01894A5D5BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AB5036-EDE2-4067-B340-D8D8B6AFF2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AB5036-EDE2-4067-B340-D8D8B6AFF2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013DF8C6-8BE1-41AD-AFE5-67E6319BDCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE/SysSettings.xlsx
+++ b/VerveStacks_CHE/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013DF8C6-8BE1-41AD-AFE5-67E6319BDCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08442D99-97B1-43BB-8DD2-2E411E04AF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
